--- a/web/WebSite2/Excel/学生.xlsx
+++ b/web/WebSite2/Excel/学生.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>学号</t>
   </si>
@@ -37,7 +37,7 @@
     <t>年级</t>
   </si>
   <si>
-    <t>201620247012</t>
+    <t>201620247018</t>
   </si>
   <si>
     <t>G</t>
@@ -52,13 +52,13 @@
     <t>00101</t>
   </si>
   <si>
-    <t>00101012016</t>
+    <t>0010101</t>
   </si>
   <si>
     <t>2016级</t>
   </si>
   <si>
-    <t>201620247013</t>
+    <t>201620247019</t>
   </si>
   <si>
     <t>H</t>
@@ -67,40 +67,70 @@
     <t xml:space="preserve">001                </t>
   </si>
   <si>
-    <t>00101022016</t>
-  </si>
-  <si>
-    <t>201620247014</t>
+    <t>201620247020</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t xml:space="preserve">003               </t>
-  </si>
-  <si>
-    <t>201620247015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">004                </t>
-  </si>
-  <si>
-    <t>201620247016</t>
+    <t>001</t>
+  </si>
+  <si>
+    <t>201620247021</t>
+  </si>
+  <si>
+    <t>201620247022</t>
   </si>
   <si>
     <t>K</t>
   </si>
   <si>
-    <t xml:space="preserve">005                </t>
-  </si>
-  <si>
-    <t>201620247017</t>
+    <t>201620247023</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t xml:space="preserve">006                </t>
+    <t>201620247024</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>201620247025</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>201620247026</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>201620247027</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>201620247028</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>201620247029</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>201620247030</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -129,15 +159,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,29 +189,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -181,9 +226,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,9 +266,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,39 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,187 +305,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,11 +499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,21 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -558,6 +579,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -574,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +616,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,13 +1072,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
@@ -1120,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1128,22 +1158,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1151,7 +1181,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1160,13 +1190,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1174,16 +1204,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1197,16 +1227,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -1215,6 +1245,167 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>13</v>
       </c>
     </row>

--- a/web/WebSite2/Excel/学生.xlsx
+++ b/web/WebSite2/Excel/学生.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8130"/>
+    <workbookView windowWidth="19770" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <t>00101</t>
   </si>
   <si>
-    <t>0010101</t>
+    <t>00101012016</t>
   </si>
   <si>
     <t>2016级</t>
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -153,6 +153,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -161,6 +168,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -168,14 +197,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,100 +266,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,37 +305,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,145 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +496,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,6 +530,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,21 +583,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -567,35 +596,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,133 +616,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G14"/>
+      <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/web/WebSite2/Excel/学生.xlsx
+++ b/web/WebSite2/Excel/学生.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7710"/>
+    <workbookView windowWidth="15870" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>学号</t>
   </si>
@@ -37,16 +37,16 @@
     <t>年级</t>
   </si>
   <si>
-    <t>201620247018</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>201620247001</t>
+  </si>
+  <si>
+    <t>计科班1</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
-    <t xml:space="preserve">001     </t>
+    <t>001</t>
   </si>
   <si>
     <t>00101</t>
@@ -58,79 +58,22 @@
     <t>2016级</t>
   </si>
   <si>
-    <t>201620247019</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001                </t>
-  </si>
-  <si>
-    <t>201620247020</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>201620247021</t>
-  </si>
-  <si>
-    <t>201620247022</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>201620247023</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>201620247024</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>201620247025</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>201620247026</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>201620247027</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>201620247028</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>201620247029</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>201620247030</t>
-  </si>
-  <si>
-    <t>S</t>
+    <t>201620247002</t>
+  </si>
+  <si>
+    <t>计科班2</t>
+  </si>
+  <si>
+    <t>201620247003</t>
+  </si>
+  <si>
+    <t>计科班3</t>
+  </si>
+  <si>
+    <t>201620247004</t>
+  </si>
+  <si>
+    <t>计科班4</t>
   </si>
 </sst>
 </file>
@@ -138,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -163,51 +106,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,7 +118,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,32 +202,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,14 +232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -305,25 +248,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,145 +416,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,10 +444,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -513,8 +454,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,54 +517,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -596,6 +530,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,133 +559,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,26 +1015,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F14"/>
+      <selection activeCell="A6" sqref="$A6:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1106,7 +1051,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1114,7 +1059,7 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1129,7 +1074,7 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1137,14 +1082,14 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -1152,22 +1097,22 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -1175,22 +1120,22 @@
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1198,214 +1143,7 @@
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
